--- a/data/accounts_creation.xlsx
+++ b/data/accounts_creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\My_Own_Projects\intern_project\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14232A4A-0BE0-4AD1-B528-C2711F72101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE3B03-D85B-4BA5-ADAD-5BBDAEA54837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>ROLE_PM</t>
+  </si>
+  <si>
+    <t>expertiseId</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,10 +429,10 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="15.296875" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.8984375" customWidth="1"/>
+    <col min="6" max="7" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +451,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -468,8 +474,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -488,8 +497,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -508,8 +520,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -525,8 +540,11 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -542,8 +560,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -559,8 +580,11 @@
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -576,8 +600,11 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -593,8 +620,11 @@
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -610,8 +640,11 @@
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -627,8 +660,11 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -644,8 +680,11 @@
       <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -661,8 +700,11 @@
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -678,8 +720,11 @@
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -695,8 +740,11 @@
       <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -712,8 +760,11 @@
       <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -729,8 +780,11 @@
       <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -746,8 +800,11 @@
       <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -763,8 +820,11 @@
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -780,8 +840,11 @@
       <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -797,8 +860,11 @@
       <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -814,8 +880,11 @@
       <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -831,8 +900,11 @@
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,8 +920,11 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -865,8 +940,11 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -880,6 +958,9 @@
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/accounts_creation.xlsx
+++ b/data/accounts_creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\My_Own_Projects\intern_project\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE3B03-D85B-4BA5-ADAD-5BBDAEA54837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C8C89-E05B-4CD2-9DD9-DB021614DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>ROLE_PM</t>
-  </si>
-  <si>
-    <t>expertiseId</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,9 +448,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -474,9 +469,6 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -497,9 +489,6 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -520,9 +509,6 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -540,9 +526,7 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -560,9 +544,7 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -580,9 +562,7 @@
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -600,9 +580,7 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -620,9 +598,7 @@
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -640,9 +616,7 @@
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -660,9 +634,7 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -680,9 +652,7 @@
       <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -700,9 +670,7 @@
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -720,9 +688,7 @@
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -740,9 +706,7 @@
       <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -760,9 +724,7 @@
       <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -780,9 +742,7 @@
       <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -800,9 +760,7 @@
       <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -820,9 +778,7 @@
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -840,9 +796,7 @@
       <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -860,9 +814,7 @@
       <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -880,9 +832,7 @@
       <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -900,9 +850,7 @@
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -920,9 +868,7 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -940,9 +886,7 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -960,9 +904,7 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/accounts_creation.xlsx
+++ b/data/accounts_creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\My_Own_Projects\intern_project\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C8C89-E05B-4CD2-9DD9-DB021614DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E828B-E399-4DBE-AB10-872326548490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>0375647463</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>lvdung-batch48@tmakes.edu.vn</t>
@@ -416,7 +413,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -452,7 +449,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -464,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -472,7 +469,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -484,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -492,7 +489,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -504,406 +501,186 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
   </sheetData>
